--- a/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàí îñàâéóòÿ îàöïäéóû íåòóà\nâ ëïóïñúö åþæ îéëóï îå áúì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s like this shop just sprang\nup overnight…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это место открылось здесь словно\nза одну ночь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï íåòóï ïóëñúìïòû èäåòû òìïâîï\nèà ïäîô îïœû…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0706.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s eco-friendly, you know?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0713.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаете ли вы, что это полезно\nдля экологии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåóå ìé âú, œóï üóï ðïìåèîï\näìÿ üëïìïãéé?</t>
   </si>
 </sst>
 </file>
@@ -76,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +135,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -127,6 +176,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,20 +504,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>383</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>364</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>364</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>345</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Èîàåóå ìé âú, œóï üóï ðïìåèîï\näìÿ üëïìïãéé?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right! So which outlaw should\nwe punish today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Итак! Какого негодяя мы сегодня\nбудем наказывать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éóàë! Ëàëïãï îåãïäÿÿ íú òåãïäîÿ\náôäåí îàëàèúâàóû?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1115.ssb</t>
   </si>
 </sst>
 </file>
@@ -470,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,20 +570,54 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>345</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>326</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>326</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>SCRIPT/G01P03A/um1115.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That [CS:N]Grovyle[CR]...[K] I\'ll rough him up\nwith my claws!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1313.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этот [CS:N]Гровайл[CR]...[K] Отведает моих\nлезвий!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïó [CS:N]Ãñïâàêì[CR]...[K] Ïóâåäàåó íïéö\nìåèâéê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He must have been a nasty piece\nof work in the future too, eh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, он и в будущем\nмного кому насолил, а?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этот [CS:N]Гровайл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, ïî é â áôäôþåí\níîïãï ëïíô îàòïìéì, à?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïó [CS:N]Ãñïâàêì[CR].</t>
   </si>
 </sst>
 </file>
@@ -485,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,6 +653,54 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <v>307</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>285</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>288</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -121,6 +121,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóïó [CS:N]Ãñïâàêì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They\'re saying [CS:N]Grovyle[CR]\'s actually\na good guy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humph![K] How do they expect me\nto believe that now?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все говорят, что [CS:N]Гровайл[CR] на самом\nделе хороший?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ãïâïñÿó, œóï [CS:N]Ãñïâàêì[CR] îà òàíïí\näåìå öïñïšéê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха![K] Ну и как я в это поверю?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà![K] Îô é ëàë ÿ â üóï ðïâåñý?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2113.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Save the world![K] You\'re our\nonly hope!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасите мир![K] Вы наша единственная\nнадежда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéóå íéñ![K] Âú îàšà åäéîòóâåîîàÿ\nîàäåçäà!</t>
   </si>
 </sst>
 </file>
@@ -151,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -205,11 +241,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -236,6 +281,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,17 +739,69 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10">
         <v>288</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>263</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10">
+        <v>266</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4">
+        <v>244</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -157,6 +157,90 @@
   </si>
   <si>
     <t xml:space="preserve"> Òðàòéóå íéñ![K] Âú îàšà åäéîòóâåîîàÿ\nîàäåçäà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a little strange...\nA treasure that has to be given as a gift…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know whether to be\nhappy about it or not. It\'s not like you get to\nkeep what\'s inside…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как-то странно... Сокровище,\nкоторое обязательно нужно дарить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не знаю, радоваться этому или\nнет. Не то чтобы ты можешь оставить себе\nто, что внутри...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë-óï òóñàîîï... Òïëñïâéþå,\nëïóïñïå ïáÿèàóåìûîï îôçîï äàñéóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå èîàý, ñàäïâàóûòÿ üóïíô éìé\nîåó. Îå óï œóïáú óú íïçåšû ïòóàâéóû òåáå\nóï, œóï âîôóñé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tch! No! What am I saying?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What a greedy point of view...\nI\'m ashamed to be so selfish…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ай! Нет! Что я говорю?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой я жадный... Я стыжусь\nсвоего эгоизма...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àê! Îåó! Œóï ÿ ãïâïñý?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ÿ çàäîúê... Ÿ òóúçôòû\nòâïåãï üãïéèíà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We come all the way here, and\nthe path has become much steeper…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы дошли сюда и путь стал\nгораздо труднее...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïšìé òýäà é ðôóû òóàì\nãïñàèäï óñôäîåå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s snow around this area...\nI wonder what the summit looks like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь повсюду снег... Интересно,\nкак выглядит вершина горы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû ðïâòýäô òîåã... Éîóåñåòîï,\nëàë âúãìÿäéó âåñšéîà ãïñú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aah... This is an amazingly\ndelicious drink.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s really great for tired bones.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3115.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аах... Какой потрясающе вкусный\nнапиток.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Самое то, чтобы снять усталость.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ààö... Ëàëïê ðïóñÿòàýþå âëôòîúê\nîàðéóïë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òàíïå óï, œóïáú òîÿóû ôòóàìïòóû.</t>
   </si>
 </sst>
 </file>
@@ -187,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,11 +334,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -287,6 +380,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,6 +903,138 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4">
+        <v>206</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>209</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>222</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10">
+        <v>225</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="12">
+        <v>193</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
+        <v>180</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4">
+        <v>164</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>167</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сайтер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -241,6 +241,114 @@
   </si>
   <si>
     <t xml:space="preserve"> Òàíïå óï, œóïáú òîÿóû ôòóàìïòóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t think we\'re truly\ncut out to be mountain climbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не думаю, что мы заточены\nпод скалолазание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå äôíàý, œóï íú èàóïœåîú\nðïä òëàìïìàèàîéå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0207.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An Honorary Member of the\nPokémon Exploration Team Federation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Почётный Член Федерации Команд\nИсследователей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïœæóîúê Œìåî Õåäåñàøéé Ëïíàîä\nÉòòìåäïâàóåìåê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s that about? An Honorary\nMember?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что это значит? Почётный Член?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï üóï èîàœéó? Ðïœæóîúê Œìåî?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We dropped by before we\nheaded out to [CS:P]Midnight Forest[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We needed to swing by [CS:K]Kecleon[CR]\nMarket to buy a [CS:I]Key[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прежде чем идти в [CS:P]Полуночный\nЛес[CR], мы зашли в город.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы хотели посетить Лавку\n[CS:K]Кеклеонов[CR] и купить [CS:I]Ключ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåçäå œåí éäóé â [CS:P]Ðïìôîïœîúê\nÌåò[CR], íú èàšìé â ãïñïä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú öïóåìé ðïòåóéóû Ìàâëô\n[CS:K]Ëåëìåïîïâ[CR] é ëôðéóû [CS:I]Ëìýœ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So the baby\'s called [CS:N]Manaphy[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так малыша зовут [CS:N]Манафи[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë íàìúšà èïâôó [CS:N]Íàîàõé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What was his name again? Was\nit [CS:N]Manaphy[CR], that little Pokémon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where could he have gotten to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как там звали малютку Покемона?\n[CS:N]Манафи[CR], да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куда он мог уйти?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óàí èâàìé íàìýóëô Ðïëåíïîà?\n[CS:N]Íàîàõé[CR], äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëôäà ïî íïã ôêóé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hear that Phione Dew is\npretty rare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что Роса Фионов это\nдовольно редкая вещь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï Ñïòà Õéïîïâ üóï\näïâïìûîï ñåäëàÿ âåþû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re leaving soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re back on the hunt for\nnew treasures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро мы покинем эти края.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы снова будем искать\nсокровища.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï íú ðïëéîåí üóé ëñàÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òîïâà áôäåí éòëàóû\nòïëñïâéþà.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -343,11 +451,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -386,6 +503,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,6 +1158,170 @@
         <v>73</v>
       </c>
     </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14">
+        <v>145</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="4">
+        <v>123</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="10">
+        <v>126</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="4">
+        <v>101</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>104</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="10">
+        <v>63</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>41</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
